--- a/2025-12-12 Updated Summary Sheet.xlsx
+++ b/2025-12-12 Updated Summary Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unbcloud-my.sharepoint.com/personal/t9v3a_unb_ca/Documents/Desktop/atlantic_housing_strategy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_E59CBDFF7E7A3738BA2407F4BA421CD949C727D9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{892C7D6C-DBF8-49D9-8907-3595423682E5}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_E59CBDFF7E7A3738BA2407F4BA421CD949C727D9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FC5C865-D02A-4F89-AE22-274A50B0FB87}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$O$1:$O$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$J$1:$J$87</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -531,9 +531,6 @@
   </si>
   <si>
     <t>Modular manufacturers (input providers), Developers / builders, quantity surveyors, housing agencies (NB Housing, NSPHA, PEIHC, NLHC), lenders (for underwriting consistency)</t>
-  </si>
-  <si>
-    <t>2026 -2028</t>
   </si>
   <si>
     <t>Number of manufacturers using the directory
@@ -3200,6 +3197,9 @@
   </si>
   <si>
     <t>Updated Initiative</t>
+  </si>
+  <si>
+    <t>2026-2028</t>
   </si>
 </sst>
 </file>
@@ -3261,12 +3261,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3569,14 +3574,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:T87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="10" max="10" width="8.7265625" style="4"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -3606,7 +3613,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -3637,10 +3644,10 @@
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
-    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -3668,7 +3675,7 @@
       <c r="I2" t="s">
         <v>27</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="4">
         <v>2026</v>
       </c>
       <c r="K2" t="s">
@@ -3702,7 +3709,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -3730,7 +3737,7 @@
       <c r="I3" t="s">
         <v>41</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="4">
         <v>2026</v>
       </c>
       <c r="K3" t="s">
@@ -3764,7 +3771,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -3792,7 +3799,7 @@
       <c r="I4" t="s">
         <v>51</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="4">
         <v>2026</v>
       </c>
       <c r="K4" t="s">
@@ -3826,7 +3833,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -3854,7 +3861,7 @@
       <c r="I5" t="s">
         <v>61</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="4">
         <v>2026</v>
       </c>
       <c r="K5" t="s">
@@ -3888,7 +3895,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -3916,7 +3923,7 @@
       <c r="I6" t="s">
         <v>73</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="4">
         <v>2026</v>
       </c>
       <c r="K6" t="s">
@@ -3950,7 +3957,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -3978,7 +3985,7 @@
       <c r="I7" t="s">
         <v>83</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="4">
         <v>2026</v>
       </c>
       <c r="K7" t="s">
@@ -4012,7 +4019,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>87</v>
       </c>
@@ -4040,7 +4047,7 @@
       <c r="I8" t="s">
         <v>91</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="4">
         <v>2026</v>
       </c>
       <c r="K8" t="s">
@@ -4074,7 +4081,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -4102,7 +4109,7 @@
       <c r="I9" t="s">
         <v>101</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="4">
         <v>2027</v>
       </c>
       <c r="K9" t="s">
@@ -4136,7 +4143,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>108</v>
       </c>
@@ -4164,7 +4171,7 @@
       <c r="I10" t="s">
         <v>113</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="4">
         <v>2026</v>
       </c>
       <c r="K10" t="s">
@@ -4226,7 +4233,7 @@
       <c r="I11" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="5">
         <v>2026</v>
       </c>
       <c r="K11" s="2" t="s">
@@ -4260,7 +4267,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>127</v>
       </c>
@@ -4288,7 +4295,7 @@
       <c r="I12" t="s">
         <v>27</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="4">
         <v>2026</v>
       </c>
       <c r="K12" t="s">
@@ -4322,7 +4329,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>135</v>
       </c>
@@ -4350,7 +4357,7 @@
       <c r="I13" t="s">
         <v>141</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="4">
         <v>2026</v>
       </c>
       <c r="K13" t="s">
@@ -4384,7 +4391,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>146</v>
       </c>
@@ -4412,8 +4419,8 @@
       <c r="I14" t="s">
         <v>91</v>
       </c>
-      <c r="J14" t="s">
-        <v>150</v>
+      <c r="J14" s="4" t="s">
+        <v>916</v>
       </c>
       <c r="K14" t="s">
         <v>62</v>
@@ -4422,16 +4429,16 @@
         <v>8</v>
       </c>
       <c r="M14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N14" t="s">
         <v>30</v>
       </c>
       <c r="O14" t="s">
+        <v>151</v>
+      </c>
+      <c r="P14" t="s">
         <v>152</v>
-      </c>
-      <c r="P14" t="s">
-        <v>153</v>
       </c>
       <c r="Q14" t="s">
         <v>33</v>
@@ -4443,12 +4450,12 @@
         <v>147</v>
       </c>
       <c r="T14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>155</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
@@ -4457,24 +4464,24 @@
         <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E15" t="s">
         <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G15" t="s">
         <v>49</v>
       </c>
       <c r="H15" t="s">
+        <v>157</v>
+      </c>
+      <c r="I15" t="s">
         <v>158</v>
       </c>
-      <c r="I15" t="s">
-        <v>159</v>
-      </c>
-      <c r="J15">
+      <c r="J15" s="4">
         <v>2026</v>
       </c>
       <c r="K15" t="s">
@@ -4484,16 +4491,16 @@
         <v>9</v>
       </c>
       <c r="M15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N15" t="s">
         <v>30</v>
       </c>
       <c r="O15" t="s">
+        <v>160</v>
+      </c>
+      <c r="P15" t="s">
         <v>161</v>
-      </c>
-      <c r="P15" t="s">
-        <v>162</v>
       </c>
       <c r="Q15" t="s">
         <v>33</v>
@@ -4502,41 +4509,41 @@
         <v>9</v>
       </c>
       <c r="S15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>164</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>165</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>166</v>
-      </c>
-      <c r="D16" t="s">
-        <v>167</v>
       </c>
       <c r="E16" t="s">
         <v>23</v>
       </c>
       <c r="F16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" t="s">
         <v>168</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>169</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>170</v>
       </c>
-      <c r="I16" t="s">
-        <v>171</v>
-      </c>
-      <c r="J16">
+      <c r="J16" s="4">
         <v>2026</v>
       </c>
       <c r="K16" t="s">
@@ -4546,59 +4553,59 @@
         <v>9</v>
       </c>
       <c r="M16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N16" t="s">
         <v>30</v>
       </c>
       <c r="O16" t="s">
+        <v>172</v>
+      </c>
+      <c r="P16" t="s">
         <v>173</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>174</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>175</v>
       </c>
       <c r="R16">
         <v>1</v>
       </c>
       <c r="S16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" t="s">
         <v>177</v>
       </c>
-      <c r="B17" t="s">
-        <v>165</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>178</v>
-      </c>
-      <c r="D17" t="s">
-        <v>179</v>
       </c>
       <c r="E17" t="s">
         <v>23</v>
       </c>
       <c r="F17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" t="s">
         <v>180</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>181</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>182</v>
       </c>
-      <c r="I17" t="s">
-        <v>183</v>
-      </c>
-      <c r="J17">
+      <c r="J17" s="4">
         <v>2026</v>
       </c>
       <c r="K17" t="s">
@@ -4608,59 +4615,59 @@
         <v>8</v>
       </c>
       <c r="M17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N17" t="s">
         <v>30</v>
       </c>
       <c r="O17" t="s">
+        <v>184</v>
+      </c>
+      <c r="P17" t="s">
         <v>185</v>
       </c>
-      <c r="P17" t="s">
-        <v>186</v>
-      </c>
       <c r="Q17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R17">
         <v>10</v>
       </c>
       <c r="S17" t="s">
+        <v>186</v>
+      </c>
+      <c r="T17" t="s">
         <v>187</v>
       </c>
-      <c r="T17" t="s">
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" t="s">
         <v>189</v>
-      </c>
-      <c r="B18" t="s">
-        <v>165</v>
-      </c>
-      <c r="C18" t="s">
-        <v>178</v>
-      </c>
-      <c r="D18" t="s">
-        <v>190</v>
       </c>
       <c r="E18" t="s">
         <v>23</v>
       </c>
       <c r="F18" t="s">
+        <v>190</v>
+      </c>
+      <c r="G18" t="s">
+        <v>180</v>
+      </c>
+      <c r="H18" t="s">
         <v>191</v>
       </c>
-      <c r="G18" t="s">
-        <v>181</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>192</v>
       </c>
-      <c r="I18" t="s">
-        <v>193</v>
-      </c>
-      <c r="J18">
+      <c r="J18" s="4">
         <v>2026</v>
       </c>
       <c r="K18" t="s">
@@ -4670,59 +4677,59 @@
         <v>9</v>
       </c>
       <c r="M18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N18" t="s">
         <v>30</v>
       </c>
       <c r="O18" t="s">
+        <v>194</v>
+      </c>
+      <c r="P18" t="s">
         <v>195</v>
       </c>
-      <c r="P18" t="s">
-        <v>196</v>
-      </c>
       <c r="Q18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R18">
         <v>11</v>
       </c>
       <c r="S18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="T18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" t="s">
         <v>198</v>
-      </c>
-      <c r="B19" t="s">
-        <v>165</v>
-      </c>
-      <c r="C19" t="s">
-        <v>178</v>
-      </c>
-      <c r="D19" t="s">
-        <v>199</v>
       </c>
       <c r="E19" t="s">
         <v>23</v>
       </c>
       <c r="F19" t="s">
+        <v>199</v>
+      </c>
+      <c r="G19" t="s">
         <v>200</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>201</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>202</v>
       </c>
-      <c r="I19" t="s">
-        <v>203</v>
-      </c>
-      <c r="J19">
+      <c r="J19" s="4">
         <v>2026</v>
       </c>
       <c r="K19" t="s">
@@ -4732,59 +4739,59 @@
         <v>8</v>
       </c>
       <c r="M19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N19" t="s">
         <v>30</v>
       </c>
       <c r="O19" t="s">
+        <v>204</v>
+      </c>
+      <c r="P19" t="s">
         <v>205</v>
       </c>
-      <c r="P19" t="s">
-        <v>206</v>
-      </c>
       <c r="Q19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R19">
         <v>16</v>
       </c>
       <c r="S19" t="s">
+        <v>206</v>
+      </c>
+      <c r="T19" t="s">
         <v>207</v>
-      </c>
-      <c r="T19" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="J20" s="2">
+      <c r="J20" s="5">
         <v>2026</v>
       </c>
       <c r="K20" s="2" t="s">
@@ -4794,7 +4801,7 @@
         <v>9</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>30</v>
@@ -4803,50 +4810,50 @@
         <v>124</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R20" s="2">
         <v>17</v>
       </c>
       <c r="S20" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="T20" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="T20" s="2" t="s">
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" t="s">
         <v>220</v>
-      </c>
-      <c r="B21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C21" t="s">
-        <v>166</v>
-      </c>
-      <c r="D21" t="s">
-        <v>221</v>
       </c>
       <c r="E21" t="s">
         <v>23</v>
       </c>
       <c r="F21" t="s">
+        <v>221</v>
+      </c>
+      <c r="G21" t="s">
+        <v>168</v>
+      </c>
+      <c r="H21" t="s">
         <v>222</v>
       </c>
-      <c r="G21" t="s">
-        <v>169</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>223</v>
       </c>
-      <c r="I21" t="s">
-        <v>224</v>
-      </c>
-      <c r="J21">
+      <c r="J21" s="4">
         <v>2026</v>
       </c>
       <c r="K21" t="s">
@@ -4856,59 +4863,59 @@
         <v>9</v>
       </c>
       <c r="M21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N21" t="s">
         <v>30</v>
       </c>
       <c r="O21" t="s">
+        <v>225</v>
+      </c>
+      <c r="P21" t="s">
         <v>226</v>
       </c>
-      <c r="P21" t="s">
-        <v>227</v>
-      </c>
       <c r="Q21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R21">
         <v>2</v>
       </c>
       <c r="S21" t="s">
+        <v>227</v>
+      </c>
+      <c r="T21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>228</v>
       </c>
-      <c r="T21" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" t="s">
         <v>229</v>
-      </c>
-      <c r="B22" t="s">
-        <v>165</v>
-      </c>
-      <c r="C22" t="s">
-        <v>166</v>
-      </c>
-      <c r="D22" t="s">
-        <v>230</v>
       </c>
       <c r="E22" t="s">
         <v>23</v>
       </c>
       <c r="F22" t="s">
+        <v>230</v>
+      </c>
+      <c r="G22" t="s">
         <v>231</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>232</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>233</v>
       </c>
-      <c r="I22" t="s">
-        <v>234</v>
-      </c>
-      <c r="J22">
+      <c r="J22" s="4">
         <v>2026</v>
       </c>
       <c r="K22" t="s">
@@ -4918,59 +4925,59 @@
         <v>9</v>
       </c>
       <c r="M22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N22" t="s">
         <v>30</v>
       </c>
       <c r="O22" t="s">
+        <v>235</v>
+      </c>
+      <c r="P22" t="s">
         <v>236</v>
       </c>
-      <c r="P22" t="s">
-        <v>237</v>
-      </c>
       <c r="Q22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R22">
         <v>3</v>
       </c>
       <c r="S22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T22" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" t="s">
         <v>239</v>
       </c>
-      <c r="B23" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>240</v>
-      </c>
-      <c r="D23" t="s">
-        <v>241</v>
       </c>
       <c r="E23" t="s">
         <v>23</v>
       </c>
       <c r="F23" t="s">
+        <v>241</v>
+      </c>
+      <c r="G23" t="s">
         <v>242</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>243</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>244</v>
       </c>
-      <c r="I23" t="s">
-        <v>245</v>
-      </c>
-      <c r="J23">
+      <c r="J23" s="4">
         <v>2026</v>
       </c>
       <c r="K23" t="s">
@@ -4980,59 +4987,59 @@
         <v>9</v>
       </c>
       <c r="M23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N23" t="s">
         <v>30</v>
       </c>
       <c r="O23" t="s">
+        <v>246</v>
+      </c>
+      <c r="P23" t="s">
         <v>247</v>
       </c>
-      <c r="P23" t="s">
-        <v>248</v>
-      </c>
       <c r="Q23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R23">
         <v>7</v>
       </c>
       <c r="S23" t="s">
+        <v>240</v>
+      </c>
+      <c r="T23" t="s">
         <v>241</v>
       </c>
-      <c r="T23" t="s">
-        <v>242</v>
-      </c>
     </row>
-    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>248</v>
+      </c>
+      <c r="B24" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" t="s">
+        <v>239</v>
+      </c>
+      <c r="D24" t="s">
         <v>249</v>
-      </c>
-      <c r="B24" t="s">
-        <v>165</v>
-      </c>
-      <c r="C24" t="s">
-        <v>240</v>
-      </c>
-      <c r="D24" t="s">
-        <v>250</v>
       </c>
       <c r="E24" t="s">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G24" t="s">
+        <v>242</v>
+      </c>
+      <c r="H24" t="s">
         <v>243</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>244</v>
       </c>
-      <c r="I24" t="s">
-        <v>245</v>
-      </c>
-      <c r="J24">
+      <c r="J24" s="4">
         <v>2026</v>
       </c>
       <c r="K24" t="s">
@@ -5042,59 +5049,59 @@
         <v>9</v>
       </c>
       <c r="M24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N24" t="s">
         <v>30</v>
       </c>
       <c r="O24" t="s">
+        <v>252</v>
+      </c>
+      <c r="P24" t="s">
         <v>253</v>
       </c>
-      <c r="P24" t="s">
-        <v>254</v>
-      </c>
       <c r="Q24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R24">
         <v>8</v>
       </c>
       <c r="S24" t="s">
+        <v>254</v>
+      </c>
+      <c r="T24" t="s">
         <v>255</v>
       </c>
-      <c r="T24" t="s">
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
         <v>257</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>258</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>259</v>
-      </c>
-      <c r="D25" t="s">
-        <v>260</v>
       </c>
       <c r="E25" t="s">
         <v>23</v>
       </c>
       <c r="F25" t="s">
+        <v>260</v>
+      </c>
+      <c r="G25" t="s">
         <v>261</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>262</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>263</v>
       </c>
-      <c r="I25" t="s">
-        <v>264</v>
-      </c>
-      <c r="J25">
+      <c r="J25" s="4">
         <v>2027</v>
       </c>
       <c r="K25" t="s">
@@ -5104,59 +5111,59 @@
         <v>9</v>
       </c>
       <c r="M25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N25" t="s">
         <v>30</v>
       </c>
       <c r="O25" t="s">
+        <v>265</v>
+      </c>
+      <c r="P25" t="s">
         <v>266</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>267</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>268</v>
       </c>
       <c r="R25">
         <v>1</v>
       </c>
       <c r="S25" t="s">
+        <v>268</v>
+      </c>
+      <c r="T25" t="s">
         <v>269</v>
       </c>
-      <c r="T25" t="s">
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
+        <v>257</v>
+      </c>
+      <c r="C26" t="s">
         <v>271</v>
       </c>
-      <c r="B26" t="s">
-        <v>258</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>272</v>
-      </c>
-      <c r="D26" t="s">
-        <v>273</v>
       </c>
       <c r="E26" t="s">
         <v>23</v>
       </c>
       <c r="F26" t="s">
+        <v>273</v>
+      </c>
+      <c r="G26" t="s">
         <v>274</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>275</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>276</v>
       </c>
-      <c r="I26" t="s">
-        <v>277</v>
-      </c>
-      <c r="J26">
+      <c r="J26" s="4">
         <v>2027</v>
       </c>
       <c r="K26" t="s">
@@ -5166,59 +5173,59 @@
         <v>9</v>
       </c>
       <c r="M26" t="s">
+        <v>277</v>
+      </c>
+      <c r="N26" t="s">
         <v>278</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>279</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>280</v>
       </c>
-      <c r="P26" t="s">
-        <v>281</v>
-      </c>
       <c r="Q26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R26">
         <v>12</v>
       </c>
       <c r="S26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="T26" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
+        <v>257</v>
+      </c>
+      <c r="C27" t="s">
+        <v>271</v>
+      </c>
+      <c r="D27" t="s">
         <v>283</v>
-      </c>
-      <c r="B27" t="s">
-        <v>258</v>
-      </c>
-      <c r="C27" t="s">
-        <v>272</v>
-      </c>
-      <c r="D27" t="s">
-        <v>284</v>
       </c>
       <c r="E27" t="s">
         <v>23</v>
       </c>
       <c r="F27" t="s">
+        <v>284</v>
+      </c>
+      <c r="G27" t="s">
         <v>285</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>286</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>287</v>
       </c>
-      <c r="I27" t="s">
-        <v>288</v>
-      </c>
-      <c r="J27">
+      <c r="J27" s="4">
         <v>2026</v>
       </c>
       <c r="K27" t="s">
@@ -5228,59 +5235,59 @@
         <v>9</v>
       </c>
       <c r="M27" t="s">
+        <v>288</v>
+      </c>
+      <c r="N27" t="s">
         <v>289</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>290</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>291</v>
       </c>
-      <c r="P27" t="s">
-        <v>292</v>
-      </c>
       <c r="Q27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R27">
         <v>13</v>
       </c>
       <c r="S27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T27" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
+        <v>257</v>
+      </c>
+      <c r="C28" t="s">
+        <v>271</v>
+      </c>
+      <c r="D28" t="s">
         <v>294</v>
-      </c>
-      <c r="B28" t="s">
-        <v>258</v>
-      </c>
-      <c r="C28" t="s">
-        <v>272</v>
-      </c>
-      <c r="D28" t="s">
-        <v>295</v>
       </c>
       <c r="E28" t="s">
         <v>23</v>
       </c>
       <c r="F28" t="s">
+        <v>295</v>
+      </c>
+      <c r="G28" t="s">
         <v>296</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>297</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>298</v>
       </c>
-      <c r="I28" t="s">
-        <v>299</v>
-      </c>
-      <c r="J28">
+      <c r="J28" s="4">
         <v>2026</v>
       </c>
       <c r="K28" t="s">
@@ -5290,59 +5297,59 @@
         <v>9</v>
       </c>
       <c r="M28" t="s">
+        <v>299</v>
+      </c>
+      <c r="N28" t="s">
+        <v>289</v>
+      </c>
+      <c r="O28" t="s">
         <v>300</v>
       </c>
-      <c r="N28" t="s">
-        <v>290</v>
-      </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>301</v>
       </c>
-      <c r="P28" t="s">
-        <v>302</v>
-      </c>
       <c r="Q28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R28">
         <v>14</v>
       </c>
       <c r="S28" t="s">
+        <v>302</v>
+      </c>
+      <c r="T28" t="s">
         <v>303</v>
       </c>
-      <c r="T28" t="s">
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
+        <v>257</v>
+      </c>
+      <c r="C29" t="s">
         <v>305</v>
       </c>
-      <c r="B29" t="s">
-        <v>258</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>306</v>
-      </c>
-      <c r="D29" t="s">
-        <v>307</v>
       </c>
       <c r="E29" t="s">
         <v>23</v>
       </c>
       <c r="F29" t="s">
+        <v>307</v>
+      </c>
+      <c r="G29" t="s">
+        <v>296</v>
+      </c>
+      <c r="H29" t="s">
         <v>308</v>
       </c>
-      <c r="G29" t="s">
-        <v>297</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>309</v>
       </c>
-      <c r="I29" t="s">
-        <v>310</v>
-      </c>
-      <c r="J29">
+      <c r="J29" s="4">
         <v>2027</v>
       </c>
       <c r="K29" t="s">
@@ -5352,59 +5359,59 @@
         <v>8</v>
       </c>
       <c r="M29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N29" t="s">
         <v>30</v>
       </c>
       <c r="O29" t="s">
+        <v>311</v>
+      </c>
+      <c r="P29" t="s">
         <v>312</v>
       </c>
-      <c r="P29" t="s">
-        <v>313</v>
-      </c>
       <c r="Q29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R29">
         <v>4</v>
       </c>
       <c r="S29" t="s">
+        <v>313</v>
+      </c>
+      <c r="T29" t="s">
         <v>314</v>
       </c>
-      <c r="T29" t="s">
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
+        <v>257</v>
+      </c>
+      <c r="C30" t="s">
         <v>316</v>
       </c>
-      <c r="B30" t="s">
-        <v>258</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>317</v>
-      </c>
-      <c r="D30" t="s">
-        <v>318</v>
       </c>
       <c r="E30" t="s">
         <v>23</v>
       </c>
       <c r="F30" t="s">
+        <v>318</v>
+      </c>
+      <c r="G30" t="s">
         <v>319</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>320</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>321</v>
       </c>
-      <c r="I30" t="s">
-        <v>322</v>
-      </c>
-      <c r="J30">
+      <c r="J30" s="4">
         <v>2026</v>
       </c>
       <c r="K30" t="s">
@@ -5414,59 +5421,59 @@
         <v>8</v>
       </c>
       <c r="M30" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N30" t="s">
         <v>30</v>
       </c>
       <c r="O30" t="s">
+        <v>323</v>
+      </c>
+      <c r="P30" t="s">
         <v>324</v>
       </c>
-      <c r="P30" t="s">
-        <v>325</v>
-      </c>
       <c r="Q30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R30">
         <v>6</v>
       </c>
       <c r="S30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="T30" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
+        <v>257</v>
+      </c>
+      <c r="C31" t="s">
         <v>327</v>
       </c>
-      <c r="B31" t="s">
-        <v>258</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>328</v>
-      </c>
-      <c r="D31" t="s">
-        <v>329</v>
       </c>
       <c r="E31" t="s">
         <v>23</v>
       </c>
       <c r="F31" t="s">
+        <v>329</v>
+      </c>
+      <c r="G31" t="s">
         <v>330</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>331</v>
       </c>
-      <c r="H31" t="s">
-        <v>332</v>
-      </c>
       <c r="I31" t="s">
-        <v>193</v>
-      </c>
-      <c r="J31">
+        <v>192</v>
+      </c>
+      <c r="J31" s="4">
         <v>2027</v>
       </c>
       <c r="K31" t="s">
@@ -5476,59 +5483,59 @@
         <v>9</v>
       </c>
       <c r="M31" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N31" t="s">
         <v>30</v>
       </c>
       <c r="O31" t="s">
+        <v>333</v>
+      </c>
+      <c r="P31" t="s">
         <v>334</v>
       </c>
-      <c r="P31" t="s">
-        <v>335</v>
-      </c>
       <c r="Q31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R31">
         <v>9</v>
       </c>
       <c r="S31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T31" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
         <v>337</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>338</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>339</v>
-      </c>
-      <c r="D32" t="s">
-        <v>340</v>
       </c>
       <c r="E32" t="s">
         <v>23</v>
       </c>
       <c r="F32" t="s">
+        <v>340</v>
+      </c>
+      <c r="G32" t="s">
         <v>341</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>342</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>343</v>
       </c>
-      <c r="I32" t="s">
-        <v>344</v>
-      </c>
-      <c r="J32">
+      <c r="J32" s="4">
         <v>2026</v>
       </c>
       <c r="K32" t="s">
@@ -5538,59 +5545,59 @@
         <v>9</v>
       </c>
       <c r="M32" t="s">
+        <v>344</v>
+      </c>
+      <c r="N32" t="s">
+        <v>289</v>
+      </c>
+      <c r="O32" t="s">
         <v>345</v>
       </c>
-      <c r="N32" t="s">
-        <v>290</v>
-      </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>346</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>347</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>348</v>
       </c>
       <c r="R32">
         <v>1</v>
       </c>
       <c r="S32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="T32" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
+        <v>337</v>
+      </c>
+      <c r="C33" t="s">
         <v>350</v>
       </c>
-      <c r="B33" t="s">
-        <v>338</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>351</v>
-      </c>
-      <c r="D33" t="s">
-        <v>352</v>
       </c>
       <c r="E33" t="s">
         <v>23</v>
       </c>
       <c r="F33" t="s">
+        <v>352</v>
+      </c>
+      <c r="G33" t="s">
         <v>353</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>354</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>355</v>
       </c>
-      <c r="I33" t="s">
-        <v>356</v>
-      </c>
-      <c r="J33">
+      <c r="J33" s="4">
         <v>2027</v>
       </c>
       <c r="K33" t="s">
@@ -5600,59 +5607,59 @@
         <v>8</v>
       </c>
       <c r="M33" t="s">
+        <v>356</v>
+      </c>
+      <c r="N33" t="s">
         <v>357</v>
       </c>
-      <c r="N33" t="s">
+      <c r="O33" t="s">
         <v>358</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>359</v>
       </c>
-      <c r="P33" t="s">
-        <v>360</v>
-      </c>
       <c r="Q33" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R33">
         <v>10</v>
       </c>
       <c r="S33" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="T33" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
+        <v>337</v>
+      </c>
+      <c r="C34" t="s">
+        <v>350</v>
+      </c>
+      <c r="D34" t="s">
         <v>362</v>
-      </c>
-      <c r="B34" t="s">
-        <v>338</v>
-      </c>
-      <c r="C34" t="s">
-        <v>351</v>
-      </c>
-      <c r="D34" t="s">
-        <v>363</v>
       </c>
       <c r="E34" t="s">
         <v>23</v>
       </c>
       <c r="F34" t="s">
+        <v>363</v>
+      </c>
+      <c r="G34" t="s">
         <v>364</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>365</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>366</v>
       </c>
-      <c r="I34" t="s">
-        <v>367</v>
-      </c>
-      <c r="J34">
+      <c r="J34" s="4">
         <v>2026</v>
       </c>
       <c r="K34" t="s">
@@ -5662,59 +5669,59 @@
         <v>7</v>
       </c>
       <c r="M34" t="s">
+        <v>367</v>
+      </c>
+      <c r="N34" t="s">
         <v>368</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>369</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>370</v>
       </c>
-      <c r="P34" t="s">
-        <v>371</v>
-      </c>
       <c r="Q34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R34">
         <v>11</v>
       </c>
       <c r="S34" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T34" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
+        <v>337</v>
+      </c>
+      <c r="C35" t="s">
+        <v>350</v>
+      </c>
+      <c r="D35" t="s">
         <v>373</v>
-      </c>
-      <c r="B35" t="s">
-        <v>338</v>
-      </c>
-      <c r="C35" t="s">
-        <v>351</v>
-      </c>
-      <c r="D35" t="s">
-        <v>374</v>
       </c>
       <c r="E35" t="s">
         <v>23</v>
       </c>
       <c r="F35" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G35" t="s">
+        <v>374</v>
+      </c>
+      <c r="H35" t="s">
+        <v>354</v>
+      </c>
+      <c r="I35" t="s">
         <v>375</v>
       </c>
-      <c r="H35" t="s">
-        <v>355</v>
-      </c>
-      <c r="I35" t="s">
-        <v>376</v>
-      </c>
-      <c r="J35">
+      <c r="J35" s="4">
         <v>2027</v>
       </c>
       <c r="K35" t="s">
@@ -5724,122 +5731,122 @@
         <v>8</v>
       </c>
       <c r="M35" t="s">
+        <v>376</v>
+      </c>
+      <c r="N35" t="s">
+        <v>357</v>
+      </c>
+      <c r="O35" t="s">
         <v>377</v>
       </c>
-      <c r="N35" t="s">
-        <v>358</v>
-      </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>378</v>
       </c>
-      <c r="P35" t="s">
-        <v>379</v>
-      </c>
       <c r="Q35" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R35">
         <v>12</v>
       </c>
       <c r="S35" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="T35" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
-    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>379</v>
+      </c>
+      <c r="B36" t="s">
+        <v>337</v>
+      </c>
+      <c r="C36" t="s">
         <v>380</v>
       </c>
-      <c r="B36" t="s">
-        <v>338</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>381</v>
-      </c>
-      <c r="D36" t="s">
-        <v>382</v>
       </c>
       <c r="E36" t="s">
         <v>23</v>
       </c>
       <c r="F36" t="s">
+        <v>382</v>
+      </c>
+      <c r="G36" t="s">
         <v>383</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>384</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>385</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" s="4">
+        <v>2026</v>
+      </c>
+      <c r="K36" t="s">
         <v>386</v>
-      </c>
-      <c r="J36">
-        <v>2026</v>
-      </c>
-      <c r="K36" t="s">
-        <v>387</v>
       </c>
       <c r="L36">
         <v>8</v>
       </c>
       <c r="M36" t="s">
+        <v>387</v>
+      </c>
+      <c r="N36" t="s">
+        <v>278</v>
+      </c>
+      <c r="O36" t="s">
         <v>388</v>
       </c>
-      <c r="N36" t="s">
-        <v>279</v>
-      </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>389</v>
       </c>
-      <c r="P36" t="s">
-        <v>390</v>
-      </c>
       <c r="Q36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R36">
         <v>14</v>
       </c>
       <c r="S36" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="T36" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C37" t="s">
+        <v>338</v>
+      </c>
+      <c r="D37" t="s">
         <v>392</v>
-      </c>
-      <c r="B37" t="s">
-        <v>338</v>
-      </c>
-      <c r="C37" t="s">
-        <v>339</v>
-      </c>
-      <c r="D37" t="s">
-        <v>393</v>
       </c>
       <c r="E37" t="s">
         <v>23</v>
       </c>
       <c r="F37" t="s">
+        <v>393</v>
+      </c>
+      <c r="G37" t="s">
         <v>394</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>395</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>396</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" s="4" t="s">
         <v>397</v>
-      </c>
-      <c r="J37" t="s">
-        <v>398</v>
       </c>
       <c r="K37" t="s">
         <v>62</v>
@@ -5848,121 +5855,121 @@
         <v>7</v>
       </c>
       <c r="M37" t="s">
+        <v>398</v>
+      </c>
+      <c r="N37" t="s">
         <v>399</v>
       </c>
-      <c r="N37" t="s">
+      <c r="O37" t="s">
         <v>400</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>401</v>
       </c>
-      <c r="P37" t="s">
-        <v>402</v>
-      </c>
       <c r="Q37" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R37">
         <v>2</v>
       </c>
       <c r="S37" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="T37" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
+        <v>337</v>
+      </c>
+      <c r="C38" t="s">
+        <v>338</v>
+      </c>
+      <c r="D38" t="s">
         <v>404</v>
-      </c>
-      <c r="B38" t="s">
-        <v>338</v>
-      </c>
-      <c r="C38" t="s">
-        <v>339</v>
-      </c>
-      <c r="D38" t="s">
-        <v>405</v>
       </c>
       <c r="E38" t="s">
         <v>23</v>
       </c>
       <c r="F38" t="s">
+        <v>405</v>
+      </c>
+      <c r="G38" t="s">
         <v>406</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>407</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>408</v>
       </c>
-      <c r="I38" t="s">
-        <v>409</v>
-      </c>
-      <c r="J38" t="s">
-        <v>398</v>
+      <c r="J38" s="4" t="s">
+        <v>397</v>
       </c>
       <c r="K38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L38">
         <v>8</v>
       </c>
       <c r="M38" t="s">
+        <v>409</v>
+      </c>
+      <c r="N38" t="s">
         <v>410</v>
       </c>
-      <c r="N38" t="s">
+      <c r="O38" t="s">
         <v>411</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>412</v>
       </c>
-      <c r="P38" t="s">
-        <v>413</v>
-      </c>
       <c r="Q38" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R38">
         <v>3</v>
       </c>
       <c r="S38" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="T38" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
         <v>415</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>416</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>417</v>
-      </c>
-      <c r="D39" t="s">
-        <v>418</v>
       </c>
       <c r="E39" t="s">
         <v>23</v>
       </c>
       <c r="F39" t="s">
+        <v>418</v>
+      </c>
+      <c r="G39" t="s">
         <v>419</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>420</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>421</v>
       </c>
-      <c r="I39" t="s">
-        <v>422</v>
-      </c>
-      <c r="J39">
+      <c r="J39" s="4">
         <v>2027</v>
       </c>
       <c r="K39" t="s">
@@ -5972,59 +5979,59 @@
         <v>8</v>
       </c>
       <c r="M39" t="s">
+        <v>422</v>
+      </c>
+      <c r="N39" t="s">
         <v>423</v>
       </c>
-      <c r="N39" t="s">
+      <c r="O39" t="s">
         <v>424</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>425</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>426</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>427</v>
       </c>
       <c r="R39">
         <v>1</v>
       </c>
       <c r="S39" t="s">
+        <v>427</v>
+      </c>
+      <c r="T39" t="s">
         <v>428</v>
       </c>
-      <c r="T39" t="s">
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
+        <v>415</v>
+      </c>
+      <c r="C40" t="s">
         <v>430</v>
       </c>
-      <c r="B40" t="s">
-        <v>416</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>431</v>
-      </c>
-      <c r="D40" t="s">
-        <v>432</v>
       </c>
       <c r="E40" t="s">
         <v>23</v>
       </c>
       <c r="F40" t="s">
+        <v>432</v>
+      </c>
+      <c r="G40" t="s">
         <v>433</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>434</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>435</v>
       </c>
-      <c r="I40" t="s">
-        <v>436</v>
-      </c>
-      <c r="J40">
+      <c r="J40" s="4">
         <v>2026</v>
       </c>
       <c r="K40" t="s">
@@ -6034,60 +6041,60 @@
         <v>8</v>
       </c>
       <c r="M40" t="s">
+        <v>436</v>
+      </c>
+      <c r="N40" t="s">
         <v>437</v>
       </c>
-      <c r="N40" t="s">
+      <c r="O40" t="s">
         <v>438</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>439</v>
       </c>
-      <c r="P40" t="s">
-        <v>440</v>
-      </c>
       <c r="Q40" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R40">
         <v>15</v>
       </c>
       <c r="S40" t="s">
+        <v>440</v>
+      </c>
+      <c r="T40" t="s">
         <v>441</v>
       </c>
-      <c r="T40" t="s">
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
+        <v>415</v>
+      </c>
+      <c r="C41" t="s">
+        <v>430</v>
+      </c>
+      <c r="D41" t="s">
         <v>443</v>
-      </c>
-      <c r="B41" t="s">
-        <v>416</v>
-      </c>
-      <c r="C41" t="s">
-        <v>431</v>
-      </c>
-      <c r="D41" t="s">
-        <v>444</v>
       </c>
       <c r="E41" t="s">
         <v>23</v>
       </c>
       <c r="F41" t="s">
+        <v>444</v>
+      </c>
+      <c r="G41" t="s">
         <v>445</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>446</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>447</v>
       </c>
-      <c r="I41" t="s">
-        <v>448</v>
-      </c>
-      <c r="J41" t="s">
-        <v>398</v>
+      <c r="J41" s="4" t="s">
+        <v>397</v>
       </c>
       <c r="K41" t="s">
         <v>28</v>
@@ -6096,60 +6103,60 @@
         <v>9</v>
       </c>
       <c r="M41" t="s">
+        <v>448</v>
+      </c>
+      <c r="N41" t="s">
         <v>449</v>
       </c>
-      <c r="N41" t="s">
+      <c r="O41" t="s">
         <v>450</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>451</v>
       </c>
-      <c r="P41" t="s">
-        <v>452</v>
-      </c>
       <c r="Q41" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R41">
         <v>16</v>
       </c>
       <c r="S41" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="T41" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
+        <v>415</v>
+      </c>
+      <c r="C42" t="s">
+        <v>430</v>
+      </c>
+      <c r="D42" t="s">
         <v>454</v>
-      </c>
-      <c r="B42" t="s">
-        <v>416</v>
-      </c>
-      <c r="C42" t="s">
-        <v>431</v>
-      </c>
-      <c r="D42" t="s">
-        <v>455</v>
       </c>
       <c r="E42" t="s">
         <v>23</v>
       </c>
       <c r="F42" t="s">
+        <v>455</v>
+      </c>
+      <c r="G42" t="s">
         <v>456</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>457</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>458</v>
       </c>
-      <c r="I42" t="s">
-        <v>459</v>
-      </c>
-      <c r="J42" t="s">
-        <v>398</v>
+      <c r="J42" s="4" t="s">
+        <v>397</v>
       </c>
       <c r="K42" t="s">
         <v>28</v>
@@ -6158,122 +6165,122 @@
         <v>8</v>
       </c>
       <c r="M42" t="s">
+        <v>459</v>
+      </c>
+      <c r="N42" t="s">
         <v>460</v>
       </c>
-      <c r="N42" t="s">
+      <c r="O42" t="s">
         <v>461</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>462</v>
       </c>
-      <c r="P42" t="s">
-        <v>463</v>
-      </c>
       <c r="Q42" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R42">
         <v>17</v>
       </c>
       <c r="S42" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="T42" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
+        <v>415</v>
+      </c>
+      <c r="C43" t="s">
         <v>465</v>
       </c>
-      <c r="B43" t="s">
-        <v>416</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>466</v>
-      </c>
-      <c r="D43" t="s">
-        <v>467</v>
       </c>
       <c r="E43" t="s">
         <v>23</v>
       </c>
       <c r="F43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G43" t="s">
         <v>468</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>469</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>470</v>
       </c>
-      <c r="I43" t="s">
-        <v>471</v>
-      </c>
-      <c r="J43">
+      <c r="J43" s="4">
         <v>2027</v>
       </c>
       <c r="K43" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L43">
         <v>9</v>
       </c>
       <c r="M43" t="s">
+        <v>471</v>
+      </c>
+      <c r="N43" t="s">
         <v>472</v>
       </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
         <v>473</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>474</v>
       </c>
-      <c r="P43" t="s">
-        <v>475</v>
-      </c>
       <c r="Q43" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R43">
         <v>18</v>
       </c>
       <c r="S43" t="s">
+        <v>475</v>
+      </c>
+      <c r="T43" t="s">
         <v>476</v>
       </c>
-      <c r="T43" t="s">
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
+        <v>415</v>
+      </c>
+      <c r="C44" t="s">
+        <v>465</v>
+      </c>
+      <c r="D44" t="s">
         <v>478</v>
-      </c>
-      <c r="B44" t="s">
-        <v>416</v>
-      </c>
-      <c r="C44" t="s">
-        <v>466</v>
-      </c>
-      <c r="D44" t="s">
-        <v>479</v>
       </c>
       <c r="E44" t="s">
         <v>23</v>
       </c>
       <c r="F44" t="s">
+        <v>479</v>
+      </c>
+      <c r="G44" t="s">
         <v>480</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>481</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>482</v>
       </c>
-      <c r="I44" t="s">
-        <v>483</v>
-      </c>
-      <c r="J44" t="s">
-        <v>398</v>
+      <c r="J44" s="4" t="s">
+        <v>397</v>
       </c>
       <c r="K44" t="s">
         <v>62</v>
@@ -6282,60 +6289,60 @@
         <v>9</v>
       </c>
       <c r="M44" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N44" t="s">
         <v>103</v>
       </c>
       <c r="O44" t="s">
+        <v>484</v>
+      </c>
+      <c r="P44" t="s">
         <v>485</v>
       </c>
-      <c r="P44" t="s">
-        <v>486</v>
-      </c>
       <c r="Q44" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R44">
         <v>19</v>
       </c>
       <c r="S44" t="s">
+        <v>486</v>
+      </c>
+      <c r="T44" t="s">
         <v>487</v>
-      </c>
-      <c r="T44" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="45" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>489</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>490</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F45" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="H45" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="I45" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="H45" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>398</v>
+      <c r="J45" s="5" t="s">
+        <v>397</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>28</v>
@@ -6344,59 +6351,59 @@
         <v>7</v>
       </c>
       <c r="M45" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="N45" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>124</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R45" s="2">
         <v>2</v>
       </c>
       <c r="S45" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="T45" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="T45" s="2" t="s">
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="B46" t="s">
+        <v>415</v>
+      </c>
+      <c r="C46" t="s">
+        <v>416</v>
+      </c>
+      <c r="D46" t="s">
         <v>497</v>
-      </c>
-      <c r="B46" t="s">
-        <v>416</v>
-      </c>
-      <c r="C46" t="s">
-        <v>417</v>
-      </c>
-      <c r="D46" t="s">
-        <v>498</v>
       </c>
       <c r="E46" t="s">
         <v>23</v>
       </c>
       <c r="F46" t="s">
+        <v>498</v>
+      </c>
+      <c r="G46" t="s">
         <v>499</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>500</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>501</v>
       </c>
-      <c r="I46" t="s">
-        <v>502</v>
-      </c>
-      <c r="J46">
+      <c r="J46" s="4">
         <v>2027</v>
       </c>
       <c r="K46" t="s">
@@ -6406,60 +6413,60 @@
         <v>8</v>
       </c>
       <c r="M46" t="s">
+        <v>502</v>
+      </c>
+      <c r="N46" t="s">
         <v>503</v>
       </c>
-      <c r="N46" t="s">
+      <c r="O46" t="s">
         <v>504</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>505</v>
       </c>
-      <c r="P46" t="s">
-        <v>506</v>
-      </c>
       <c r="Q46" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R46">
         <v>3</v>
       </c>
       <c r="S46" t="s">
+        <v>506</v>
+      </c>
+      <c r="T46" t="s">
         <v>507</v>
       </c>
-      <c r="T46" t="s">
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="B47" t="s">
+        <v>415</v>
+      </c>
+      <c r="C47" t="s">
         <v>509</v>
       </c>
-      <c r="B47" t="s">
-        <v>416</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>510</v>
-      </c>
-      <c r="D47" t="s">
-        <v>511</v>
       </c>
       <c r="E47" t="s">
         <v>23</v>
       </c>
       <c r="F47" t="s">
+        <v>511</v>
+      </c>
+      <c r="G47" t="s">
         <v>512</v>
       </c>
-      <c r="G47" t="s">
-        <v>513</v>
-      </c>
       <c r="H47" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I47" t="s">
-        <v>448</v>
-      </c>
-      <c r="J47" t="s">
-        <v>398</v>
+        <v>447</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>397</v>
       </c>
       <c r="K47" t="s">
         <v>62</v>
@@ -6468,184 +6475,184 @@
         <v>9</v>
       </c>
       <c r="M47" t="s">
+        <v>513</v>
+      </c>
+      <c r="N47" t="s">
         <v>514</v>
       </c>
-      <c r="N47" t="s">
+      <c r="O47" t="s">
         <v>515</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
         <v>516</v>
       </c>
-      <c r="P47" t="s">
-        <v>517</v>
-      </c>
       <c r="Q47" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R47">
         <v>7</v>
       </c>
       <c r="S47" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="T47" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
+        <v>415</v>
+      </c>
+      <c r="C48" t="s">
+        <v>509</v>
+      </c>
+      <c r="D48" t="s">
         <v>519</v>
-      </c>
-      <c r="B48" t="s">
-        <v>416</v>
-      </c>
-      <c r="C48" t="s">
-        <v>510</v>
-      </c>
-      <c r="D48" t="s">
-        <v>520</v>
       </c>
       <c r="E48" t="s">
         <v>23</v>
       </c>
       <c r="F48" t="s">
+        <v>520</v>
+      </c>
+      <c r="G48" t="s">
         <v>521</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>522</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>523</v>
       </c>
-      <c r="I48" t="s">
-        <v>524</v>
-      </c>
-      <c r="J48">
+      <c r="J48" s="4">
         <v>2027</v>
       </c>
       <c r="K48" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L48">
         <v>7</v>
       </c>
       <c r="M48" t="s">
+        <v>524</v>
+      </c>
+      <c r="N48" t="s">
         <v>525</v>
       </c>
-      <c r="N48" t="s">
+      <c r="O48" t="s">
         <v>526</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
         <v>527</v>
       </c>
-      <c r="P48" t="s">
-        <v>528</v>
-      </c>
       <c r="Q48" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R48">
         <v>8</v>
       </c>
       <c r="S48" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="T48" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="B49" t="s">
+        <v>415</v>
+      </c>
+      <c r="C49" t="s">
+        <v>509</v>
+      </c>
+      <c r="D49" t="s">
         <v>530</v>
-      </c>
-      <c r="B49" t="s">
-        <v>416</v>
-      </c>
-      <c r="C49" t="s">
-        <v>510</v>
-      </c>
-      <c r="D49" t="s">
-        <v>531</v>
       </c>
       <c r="E49" t="s">
         <v>23</v>
       </c>
       <c r="F49" t="s">
+        <v>531</v>
+      </c>
+      <c r="G49" t="s">
         <v>532</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>533</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>534</v>
       </c>
-      <c r="I49" t="s">
-        <v>535</v>
-      </c>
-      <c r="J49">
+      <c r="J49" s="4">
         <v>2026</v>
       </c>
       <c r="K49" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L49">
         <v>8</v>
       </c>
       <c r="M49" t="s">
+        <v>535</v>
+      </c>
+      <c r="N49" t="s">
+        <v>423</v>
+      </c>
+      <c r="O49" t="s">
         <v>536</v>
       </c>
-      <c r="N49" t="s">
-        <v>424</v>
-      </c>
-      <c r="O49" t="s">
+      <c r="P49" t="s">
         <v>537</v>
       </c>
-      <c r="P49" t="s">
-        <v>538</v>
-      </c>
       <c r="Q49" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R49">
         <v>9</v>
       </c>
       <c r="S49" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="T49" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="B50" t="s">
+        <v>164</v>
+      </c>
+      <c r="C50" t="s">
+        <v>177</v>
+      </c>
+      <c r="D50" t="s">
         <v>540</v>
       </c>
-      <c r="B50" t="s">
-        <v>165</v>
-      </c>
-      <c r="C50" t="s">
-        <v>178</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>541</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>542</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>543</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>544</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>545</v>
       </c>
-      <c r="I50" t="s">
-        <v>546</v>
-      </c>
-      <c r="J50">
-        <v>2025</v>
+      <c r="J50" s="4">
+        <v>2026</v>
       </c>
       <c r="K50" t="s">
         <v>28</v>
@@ -6654,60 +6661,60 @@
         <v>7</v>
       </c>
       <c r="M50" t="s">
+        <v>546</v>
+      </c>
+      <c r="N50" t="s">
+        <v>410</v>
+      </c>
+      <c r="O50" t="s">
         <v>547</v>
       </c>
-      <c r="N50" t="s">
-        <v>411</v>
-      </c>
-      <c r="O50" t="s">
+      <c r="P50" t="s">
         <v>548</v>
       </c>
-      <c r="P50" t="s">
-        <v>549</v>
-      </c>
       <c r="Q50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R50">
         <v>12</v>
       </c>
       <c r="S50" t="s">
+        <v>549</v>
+      </c>
+      <c r="T50" t="s">
         <v>550</v>
       </c>
-      <c r="T50" t="s">
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="B51" t="s">
+        <v>164</v>
+      </c>
+      <c r="C51" t="s">
+        <v>177</v>
+      </c>
+      <c r="D51" t="s">
         <v>552</v>
       </c>
-      <c r="B51" t="s">
-        <v>165</v>
-      </c>
-      <c r="C51" t="s">
-        <v>178</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
+        <v>541</v>
+      </c>
+      <c r="F51" t="s">
         <v>553</v>
-      </c>
-      <c r="E51" t="s">
-        <v>542</v>
-      </c>
-      <c r="F51" t="s">
-        <v>554</v>
       </c>
       <c r="G51" t="s">
         <v>130</v>
       </c>
       <c r="H51" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I51" t="s">
-        <v>546</v>
-      </c>
-      <c r="J51" t="s">
-        <v>150</v>
+        <v>545</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>916</v>
       </c>
       <c r="K51" t="s">
         <v>62</v>
@@ -6716,59 +6723,59 @@
         <v>8</v>
       </c>
       <c r="M51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N51" t="s">
         <v>30</v>
       </c>
       <c r="O51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P51" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="Q51" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R51">
         <v>13</v>
       </c>
       <c r="S51" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="T51" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
+        <v>164</v>
+      </c>
+      <c r="C52" t="s">
+        <v>177</v>
+      </c>
+      <c r="D52" t="s">
         <v>558</v>
       </c>
-      <c r="B52" t="s">
-        <v>165</v>
-      </c>
-      <c r="C52" t="s">
-        <v>178</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
+        <v>541</v>
+      </c>
+      <c r="F52" t="s">
         <v>559</v>
       </c>
-      <c r="E52" t="s">
-        <v>542</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>560</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>561</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>562</v>
       </c>
-      <c r="I52" t="s">
-        <v>563</v>
-      </c>
-      <c r="J52">
+      <c r="J52" s="4">
         <v>2026</v>
       </c>
       <c r="K52" t="s">
@@ -6778,59 +6785,59 @@
         <v>8</v>
       </c>
       <c r="M52" t="s">
+        <v>563</v>
+      </c>
+      <c r="N52" t="s">
+        <v>410</v>
+      </c>
+      <c r="O52" t="s">
         <v>564</v>
       </c>
-      <c r="N52" t="s">
-        <v>411</v>
-      </c>
-      <c r="O52" t="s">
+      <c r="P52" t="s">
         <v>565</v>
       </c>
-      <c r="P52" t="s">
-        <v>566</v>
-      </c>
       <c r="Q52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R52">
         <v>15</v>
       </c>
       <c r="S52" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="T52" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="B53" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" t="s">
+        <v>209</v>
+      </c>
+      <c r="D53" t="s">
         <v>568</v>
       </c>
-      <c r="B53" t="s">
-        <v>165</v>
-      </c>
-      <c r="C53" t="s">
-        <v>210</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
+        <v>541</v>
+      </c>
+      <c r="F53" t="s">
         <v>569</v>
       </c>
-      <c r="E53" t="s">
-        <v>542</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>570</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>571</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>572</v>
       </c>
-      <c r="I53" t="s">
-        <v>573</v>
-      </c>
-      <c r="J53">
+      <c r="J53" s="4">
         <v>2026</v>
       </c>
       <c r="K53" t="s">
@@ -6840,59 +6847,59 @@
         <v>8</v>
       </c>
       <c r="M53" t="s">
+        <v>573</v>
+      </c>
+      <c r="N53" t="s">
+        <v>410</v>
+      </c>
+      <c r="O53" t="s">
         <v>574</v>
       </c>
-      <c r="N53" t="s">
-        <v>411</v>
-      </c>
-      <c r="O53" t="s">
+      <c r="P53" t="s">
         <v>575</v>
       </c>
-      <c r="P53" t="s">
-        <v>576</v>
-      </c>
       <c r="Q53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R53">
         <v>18</v>
       </c>
       <c r="S53" t="s">
+        <v>576</v>
+      </c>
+      <c r="T53" t="s">
         <v>577</v>
       </c>
-      <c r="T53" t="s">
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="B54" t="s">
+        <v>257</v>
+      </c>
+      <c r="C54" t="s">
+        <v>271</v>
+      </c>
+      <c r="D54" t="s">
         <v>579</v>
       </c>
-      <c r="B54" t="s">
-        <v>258</v>
-      </c>
-      <c r="C54" t="s">
-        <v>272</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
+        <v>541</v>
+      </c>
+      <c r="F54" t="s">
         <v>580</v>
       </c>
-      <c r="E54" t="s">
-        <v>542</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>581</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>582</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>583</v>
       </c>
-      <c r="I54" t="s">
-        <v>584</v>
-      </c>
-      <c r="J54">
+      <c r="J54" s="4">
         <v>2026</v>
       </c>
       <c r="K54" t="s">
@@ -6902,59 +6909,59 @@
         <v>7</v>
       </c>
       <c r="M54" t="s">
+        <v>584</v>
+      </c>
+      <c r="N54" t="s">
+        <v>410</v>
+      </c>
+      <c r="O54" t="s">
         <v>585</v>
       </c>
-      <c r="N54" t="s">
-        <v>411</v>
-      </c>
-      <c r="O54" t="s">
+      <c r="P54" t="s">
         <v>586</v>
       </c>
-      <c r="P54" t="s">
-        <v>587</v>
-      </c>
       <c r="Q54" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R54">
         <v>15</v>
       </c>
       <c r="S54" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="T54" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="B55" t="s">
+        <v>257</v>
+      </c>
+      <c r="C55" t="s">
+        <v>258</v>
+      </c>
+      <c r="D55" t="s">
         <v>589</v>
       </c>
-      <c r="B55" t="s">
-        <v>258</v>
-      </c>
-      <c r="C55" t="s">
-        <v>259</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
+        <v>541</v>
+      </c>
+      <c r="F55" t="s">
         <v>590</v>
       </c>
-      <c r="E55" t="s">
-        <v>542</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>591</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>592</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>593</v>
       </c>
-      <c r="I55" t="s">
-        <v>594</v>
-      </c>
-      <c r="J55">
+      <c r="J55" s="4">
         <v>2026</v>
       </c>
       <c r="K55" t="s">
@@ -6964,59 +6971,59 @@
         <v>7</v>
       </c>
       <c r="M55" t="s">
+        <v>594</v>
+      </c>
+      <c r="N55" t="s">
+        <v>278</v>
+      </c>
+      <c r="O55" t="s">
         <v>595</v>
       </c>
-      <c r="N55" t="s">
-        <v>279</v>
-      </c>
-      <c r="O55" t="s">
+      <c r="P55" t="s">
         <v>596</v>
       </c>
-      <c r="P55" t="s">
-        <v>597</v>
-      </c>
       <c r="Q55" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R55">
         <v>2</v>
       </c>
       <c r="S55" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="T55" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="B56" t="s">
+        <v>257</v>
+      </c>
+      <c r="C56" t="s">
+        <v>258</v>
+      </c>
+      <c r="D56" t="s">
         <v>599</v>
       </c>
-      <c r="B56" t="s">
-        <v>258</v>
-      </c>
-      <c r="C56" t="s">
-        <v>259</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
+        <v>541</v>
+      </c>
+      <c r="F56" t="s">
         <v>600</v>
       </c>
-      <c r="E56" t="s">
-        <v>542</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>601</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>602</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>603</v>
       </c>
-      <c r="I56" t="s">
-        <v>604</v>
-      </c>
-      <c r="J56">
+      <c r="J56" s="4">
         <v>2026</v>
       </c>
       <c r="K56" t="s">
@@ -7026,60 +7033,60 @@
         <v>6</v>
       </c>
       <c r="M56" t="s">
+        <v>604</v>
+      </c>
+      <c r="N56" t="s">
+        <v>410</v>
+      </c>
+      <c r="O56" t="s">
         <v>605</v>
       </c>
-      <c r="N56" t="s">
-        <v>411</v>
-      </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>606</v>
       </c>
-      <c r="P56" t="s">
-        <v>607</v>
-      </c>
       <c r="Q56" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R56">
         <v>3</v>
       </c>
       <c r="S56" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="T56" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="B57" t="s">
+        <v>337</v>
+      </c>
+      <c r="C57" t="s">
+        <v>380</v>
+      </c>
+      <c r="D57" t="s">
         <v>609</v>
       </c>
-      <c r="B57" t="s">
-        <v>338</v>
-      </c>
-      <c r="C57" t="s">
-        <v>381</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
+        <v>541</v>
+      </c>
+      <c r="F57" t="s">
         <v>610</v>
       </c>
-      <c r="E57" t="s">
-        <v>542</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>611</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
+        <v>395</v>
+      </c>
+      <c r="I57" t="s">
         <v>612</v>
       </c>
-      <c r="H57" t="s">
-        <v>396</v>
-      </c>
-      <c r="I57" t="s">
-        <v>613</v>
-      </c>
-      <c r="J57" t="s">
-        <v>398</v>
+      <c r="J57" s="4" t="s">
+        <v>397</v>
       </c>
       <c r="K57" t="s">
         <v>62</v>
@@ -7088,121 +7095,121 @@
         <v>7</v>
       </c>
       <c r="M57" t="s">
+        <v>613</v>
+      </c>
+      <c r="N57" t="s">
+        <v>278</v>
+      </c>
+      <c r="O57" t="s">
         <v>614</v>
       </c>
-      <c r="N57" t="s">
-        <v>279</v>
-      </c>
-      <c r="O57" t="s">
+      <c r="P57" t="s">
         <v>615</v>
       </c>
-      <c r="P57" t="s">
-        <v>616</v>
-      </c>
       <c r="Q57" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R57">
         <v>15</v>
       </c>
       <c r="S57" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="T57" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="B58" t="s">
+        <v>337</v>
+      </c>
+      <c r="C58" t="s">
+        <v>338</v>
+      </c>
+      <c r="D58" t="s">
         <v>618</v>
       </c>
-      <c r="B58" t="s">
-        <v>338</v>
-      </c>
-      <c r="C58" t="s">
-        <v>339</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
+        <v>541</v>
+      </c>
+      <c r="F58" t="s">
         <v>619</v>
       </c>
-      <c r="E58" t="s">
-        <v>542</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>620</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>621</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>622</v>
       </c>
-      <c r="I58" t="s">
-        <v>623</v>
-      </c>
-      <c r="J58">
+      <c r="J58" s="4">
         <v>2027</v>
       </c>
       <c r="K58" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L58">
         <v>8</v>
       </c>
       <c r="M58" t="s">
+        <v>623</v>
+      </c>
+      <c r="N58" t="s">
+        <v>410</v>
+      </c>
+      <c r="O58" t="s">
         <v>624</v>
       </c>
-      <c r="N58" t="s">
-        <v>411</v>
-      </c>
-      <c r="O58" t="s">
+      <c r="P58" t="s">
         <v>625</v>
       </c>
-      <c r="P58" t="s">
-        <v>626</v>
-      </c>
       <c r="Q58" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R58">
         <v>6</v>
       </c>
       <c r="S58" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="T58" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="B59" t="s">
+        <v>415</v>
+      </c>
+      <c r="C59" t="s">
+        <v>509</v>
+      </c>
+      <c r="D59" t="s">
         <v>628</v>
       </c>
-      <c r="B59" t="s">
-        <v>416</v>
-      </c>
-      <c r="C59" t="s">
-        <v>510</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
+        <v>541</v>
+      </c>
+      <c r="F59" t="s">
         <v>629</v>
       </c>
-      <c r="E59" t="s">
-        <v>542</v>
-      </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>630</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>631</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>632</v>
       </c>
-      <c r="I59" t="s">
-        <v>633</v>
-      </c>
-      <c r="J59">
+      <c r="J59" s="4">
         <v>2027</v>
       </c>
       <c r="K59" t="s">
@@ -7212,60 +7219,60 @@
         <v>9</v>
       </c>
       <c r="M59" t="s">
+        <v>633</v>
+      </c>
+      <c r="N59" t="s">
+        <v>278</v>
+      </c>
+      <c r="O59" t="s">
         <v>634</v>
       </c>
-      <c r="N59" t="s">
-        <v>279</v>
-      </c>
-      <c r="O59" t="s">
+      <c r="P59" t="s">
         <v>635</v>
       </c>
-      <c r="P59" t="s">
-        <v>636</v>
-      </c>
       <c r="Q59" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R59">
         <v>11</v>
       </c>
       <c r="S59" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="T59" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="B60" t="s">
+        <v>415</v>
+      </c>
+      <c r="C60" t="s">
+        <v>465</v>
+      </c>
+      <c r="D60" t="s">
         <v>638</v>
       </c>
-      <c r="B60" t="s">
-        <v>416</v>
-      </c>
-      <c r="C60" t="s">
-        <v>466</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
+        <v>541</v>
+      </c>
+      <c r="F60" t="s">
         <v>639</v>
       </c>
-      <c r="E60" t="s">
-        <v>542</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>640</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
+        <v>481</v>
+      </c>
+      <c r="I60" t="s">
         <v>641</v>
       </c>
-      <c r="H60" t="s">
-        <v>482</v>
-      </c>
-      <c r="I60" t="s">
-        <v>642</v>
-      </c>
-      <c r="J60" t="s">
-        <v>398</v>
+      <c r="J60" s="4" t="s">
+        <v>397</v>
       </c>
       <c r="K60" t="s">
         <v>28</v>
@@ -7274,59 +7281,59 @@
         <v>8</v>
       </c>
       <c r="M60" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="N60" t="s">
         <v>103</v>
       </c>
       <c r="O60" t="s">
+        <v>643</v>
+      </c>
+      <c r="P60" t="s">
         <v>644</v>
       </c>
-      <c r="P60" t="s">
-        <v>645</v>
-      </c>
       <c r="Q60" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R60">
         <v>20</v>
       </c>
       <c r="S60" t="s">
+        <v>645</v>
+      </c>
+      <c r="T60" t="s">
         <v>646</v>
       </c>
-      <c r="T60" t="s">
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+      <c r="B61" t="s">
+        <v>415</v>
+      </c>
+      <c r="C61" t="s">
+        <v>509</v>
+      </c>
+      <c r="D61" t="s">
         <v>648</v>
       </c>
-      <c r="B61" t="s">
-        <v>416</v>
-      </c>
-      <c r="C61" t="s">
-        <v>510</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
+        <v>541</v>
+      </c>
+      <c r="F61" t="s">
         <v>649</v>
       </c>
-      <c r="E61" t="s">
-        <v>542</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>650</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>651</v>
       </c>
-      <c r="H61" t="s">
-        <v>652</v>
-      </c>
       <c r="I61" t="s">
-        <v>493</v>
-      </c>
-      <c r="J61">
+        <v>492</v>
+      </c>
+      <c r="J61" s="4">
         <v>2027</v>
       </c>
       <c r="K61" t="s">
@@ -7336,60 +7343,60 @@
         <v>8</v>
       </c>
       <c r="M61" t="s">
+        <v>652</v>
+      </c>
+      <c r="N61" t="s">
+        <v>423</v>
+      </c>
+      <c r="O61" t="s">
         <v>653</v>
       </c>
-      <c r="N61" t="s">
-        <v>424</v>
-      </c>
-      <c r="O61" t="s">
+      <c r="P61" t="s">
         <v>654</v>
       </c>
-      <c r="P61" t="s">
-        <v>655</v>
-      </c>
       <c r="Q61" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R61">
         <v>6</v>
       </c>
       <c r="S61" t="s">
+        <v>655</v>
+      </c>
+      <c r="T61" t="s">
         <v>656</v>
       </c>
-      <c r="T61" t="s">
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="B62" t="s">
+        <v>164</v>
+      </c>
+      <c r="C62" t="s">
+        <v>177</v>
+      </c>
+      <c r="D62" t="s">
         <v>658</v>
       </c>
-      <c r="B62" t="s">
-        <v>165</v>
-      </c>
-      <c r="C62" t="s">
-        <v>178</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>659</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>660</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>661</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>662</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>663</v>
       </c>
-      <c r="I62" t="s">
-        <v>664</v>
-      </c>
-      <c r="J62">
-        <v>2025</v>
+      <c r="J62" s="4">
+        <v>2026</v>
       </c>
       <c r="K62" t="s">
         <v>28</v>
@@ -7398,59 +7405,59 @@
         <v>9</v>
       </c>
       <c r="M62" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="N62" t="s">
         <v>103</v>
       </c>
       <c r="O62" t="s">
+        <v>665</v>
+      </c>
+      <c r="P62" t="s">
         <v>666</v>
       </c>
-      <c r="P62" t="s">
-        <v>667</v>
-      </c>
       <c r="Q62" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R62">
         <v>14</v>
       </c>
       <c r="S62" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="T62" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="B63" t="s">
+        <v>257</v>
+      </c>
+      <c r="C63" t="s">
+        <v>327</v>
+      </c>
+      <c r="D63" t="s">
         <v>669</v>
       </c>
-      <c r="B63" t="s">
-        <v>258</v>
-      </c>
-      <c r="C63" t="s">
-        <v>328</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>670</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>671</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>672</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>673</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>674</v>
       </c>
-      <c r="I63" t="s">
-        <v>675</v>
-      </c>
-      <c r="J63">
+      <c r="J63" s="4">
         <v>2027</v>
       </c>
       <c r="K63" t="s">
@@ -7460,59 +7467,59 @@
         <v>8</v>
       </c>
       <c r="M63" t="s">
+        <v>675</v>
+      </c>
+      <c r="N63" t="s">
+        <v>410</v>
+      </c>
+      <c r="O63" t="s">
         <v>676</v>
       </c>
-      <c r="N63" t="s">
-        <v>411</v>
-      </c>
-      <c r="O63" t="s">
+      <c r="P63" t="s">
         <v>677</v>
       </c>
-      <c r="P63" t="s">
-        <v>678</v>
-      </c>
       <c r="Q63" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R63">
         <v>10</v>
       </c>
       <c r="S63" t="s">
+        <v>678</v>
+      </c>
+      <c r="T63" t="s">
         <v>679</v>
       </c>
-      <c r="T63" t="s">
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+      <c r="B64" t="s">
+        <v>257</v>
+      </c>
+      <c r="C64" t="s">
+        <v>316</v>
+      </c>
+      <c r="D64" t="s">
         <v>681</v>
       </c>
-      <c r="B64" t="s">
-        <v>258</v>
-      </c>
-      <c r="C64" t="s">
-        <v>317</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
+        <v>670</v>
+      </c>
+      <c r="F64" t="s">
         <v>682</v>
       </c>
-      <c r="E64" t="s">
-        <v>671</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>683</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>684</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>685</v>
       </c>
-      <c r="I64" t="s">
-        <v>686</v>
-      </c>
-      <c r="J64">
+      <c r="J64" s="4">
         <v>2026</v>
       </c>
       <c r="K64" t="s">
@@ -7522,59 +7529,59 @@
         <v>7</v>
       </c>
       <c r="M64" t="s">
+        <v>686</v>
+      </c>
+      <c r="N64" t="s">
+        <v>410</v>
+      </c>
+      <c r="O64" t="s">
         <v>687</v>
       </c>
-      <c r="N64" t="s">
-        <v>411</v>
-      </c>
-      <c r="O64" t="s">
+      <c r="P64" t="s">
         <v>688</v>
       </c>
-      <c r="P64" t="s">
-        <v>689</v>
-      </c>
       <c r="Q64" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R64">
         <v>7</v>
       </c>
       <c r="S64" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="T64" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+      <c r="B65" t="s">
+        <v>337</v>
+      </c>
+      <c r="C65" t="s">
+        <v>338</v>
+      </c>
+      <c r="D65" t="s">
         <v>691</v>
       </c>
-      <c r="B65" t="s">
-        <v>338</v>
-      </c>
-      <c r="C65" t="s">
-        <v>339</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
+        <v>670</v>
+      </c>
+      <c r="F65" t="s">
         <v>692</v>
       </c>
-      <c r="E65" t="s">
-        <v>671</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>693</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>694</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>695</v>
       </c>
-      <c r="I65" t="s">
-        <v>696</v>
-      </c>
-      <c r="J65">
+      <c r="J65" s="4">
         <v>2027</v>
       </c>
       <c r="K65" t="s">
@@ -7584,59 +7591,59 @@
         <v>9</v>
       </c>
       <c r="M65" t="s">
+        <v>696</v>
+      </c>
+      <c r="N65" t="s">
         <v>697</v>
       </c>
-      <c r="N65" t="s">
+      <c r="O65" t="s">
         <v>698</v>
       </c>
-      <c r="O65" t="s">
+      <c r="P65" t="s">
         <v>699</v>
       </c>
-      <c r="P65" t="s">
-        <v>700</v>
-      </c>
       <c r="Q65" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R65">
         <v>4</v>
       </c>
       <c r="S65" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="T65" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+      <c r="B66" t="s">
+        <v>337</v>
+      </c>
+      <c r="C66" t="s">
+        <v>338</v>
+      </c>
+      <c r="D66" t="s">
         <v>702</v>
       </c>
-      <c r="B66" t="s">
-        <v>338</v>
-      </c>
-      <c r="C66" t="s">
-        <v>339</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
+        <v>670</v>
+      </c>
+      <c r="F66" t="s">
         <v>703</v>
       </c>
-      <c r="E66" t="s">
-        <v>671</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>704</v>
       </c>
-      <c r="G66" t="s">
-        <v>705</v>
-      </c>
       <c r="H66" t="s">
+        <v>621</v>
+      </c>
+      <c r="I66" t="s">
         <v>622</v>
       </c>
-      <c r="I66" t="s">
-        <v>623</v>
-      </c>
-      <c r="J66">
+      <c r="J66" s="4">
         <v>2027</v>
       </c>
       <c r="K66" t="s">
@@ -7646,59 +7653,59 @@
         <v>8</v>
       </c>
       <c r="M66" t="s">
+        <v>705</v>
+      </c>
+      <c r="N66" t="s">
+        <v>410</v>
+      </c>
+      <c r="O66" t="s">
         <v>706</v>
       </c>
-      <c r="N66" t="s">
-        <v>411</v>
-      </c>
-      <c r="O66" t="s">
+      <c r="P66" t="s">
         <v>707</v>
       </c>
-      <c r="P66" t="s">
-        <v>708</v>
-      </c>
       <c r="Q66" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R66">
         <v>5</v>
       </c>
       <c r="S66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="T66" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="B67" t="s">
+        <v>415</v>
+      </c>
+      <c r="C67" t="s">
+        <v>509</v>
+      </c>
+      <c r="D67" t="s">
         <v>710</v>
       </c>
-      <c r="B67" t="s">
-        <v>416</v>
-      </c>
-      <c r="C67" t="s">
-        <v>510</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
+        <v>670</v>
+      </c>
+      <c r="F67" t="s">
         <v>711</v>
       </c>
-      <c r="E67" t="s">
-        <v>671</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>712</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
+        <v>651</v>
+      </c>
+      <c r="I67" t="s">
         <v>713</v>
       </c>
-      <c r="H67" t="s">
-        <v>652</v>
-      </c>
-      <c r="I67" t="s">
-        <v>714</v>
-      </c>
-      <c r="J67">
+      <c r="J67" s="4">
         <v>2027</v>
       </c>
       <c r="K67" t="s">
@@ -7708,33 +7715,33 @@
         <v>9</v>
       </c>
       <c r="M67" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N67" t="s">
         <v>103</v>
       </c>
       <c r="O67" t="s">
+        <v>715</v>
+      </c>
+      <c r="P67" t="s">
         <v>716</v>
       </c>
-      <c r="P67" t="s">
-        <v>717</v>
-      </c>
       <c r="Q67" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R67">
         <v>12</v>
       </c>
       <c r="S67" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="T67" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>718</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>719</v>
       </c>
       <c r="B68" t="s">
         <v>20</v>
@@ -7743,24 +7750,24 @@
         <v>21</v>
       </c>
       <c r="D68" t="s">
+        <v>719</v>
+      </c>
+      <c r="E68" t="s">
         <v>720</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>721</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>722</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>723</v>
-      </c>
-      <c r="H68" t="s">
-        <v>724</v>
       </c>
       <c r="I68" t="s">
         <v>122</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="4">
         <v>2026</v>
       </c>
       <c r="K68" t="s">
@@ -7770,16 +7777,16 @@
         <v>7</v>
       </c>
       <c r="M68" t="s">
+        <v>724</v>
+      </c>
+      <c r="N68" t="s">
+        <v>410</v>
+      </c>
+      <c r="O68" t="s">
         <v>725</v>
       </c>
-      <c r="N68" t="s">
-        <v>411</v>
-      </c>
-      <c r="O68" t="s">
+      <c r="P68" t="s">
         <v>726</v>
-      </c>
-      <c r="P68" t="s">
-        <v>727</v>
       </c>
       <c r="Q68" t="s">
         <v>33</v>
@@ -7788,41 +7795,41 @@
         <v>4</v>
       </c>
       <c r="S68" t="s">
+        <v>727</v>
+      </c>
+      <c r="T68" t="s">
         <v>728</v>
       </c>
-      <c r="T68" t="s">
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+      <c r="B69" t="s">
+        <v>164</v>
+      </c>
+      <c r="C69" t="s">
+        <v>165</v>
+      </c>
+      <c r="D69" t="s">
         <v>730</v>
       </c>
-      <c r="B69" t="s">
-        <v>165</v>
-      </c>
-      <c r="C69" t="s">
-        <v>166</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
+        <v>720</v>
+      </c>
+      <c r="F69" t="s">
         <v>731</v>
       </c>
-      <c r="E69" t="s">
-        <v>721</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>732</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>733</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>734</v>
       </c>
-      <c r="I69" t="s">
-        <v>735</v>
-      </c>
-      <c r="J69">
+      <c r="J69" s="4">
         <v>2026</v>
       </c>
       <c r="K69" t="s">
@@ -7832,59 +7839,59 @@
         <v>7</v>
       </c>
       <c r="M69" t="s">
+        <v>735</v>
+      </c>
+      <c r="N69" t="s">
+        <v>410</v>
+      </c>
+      <c r="O69" t="s">
         <v>736</v>
       </c>
-      <c r="N69" t="s">
-        <v>411</v>
-      </c>
-      <c r="O69" t="s">
+      <c r="P69" t="s">
         <v>737</v>
       </c>
-      <c r="P69" t="s">
-        <v>738</v>
-      </c>
       <c r="Q69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R69">
         <v>5</v>
       </c>
       <c r="S69" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="T69" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+      <c r="B70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C70" t="s">
+        <v>327</v>
+      </c>
+      <c r="D70" t="s">
         <v>740</v>
       </c>
-      <c r="B70" t="s">
-        <v>258</v>
-      </c>
-      <c r="C70" t="s">
-        <v>328</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
+        <v>720</v>
+      </c>
+      <c r="F70" t="s">
         <v>741</v>
       </c>
-      <c r="E70" t="s">
-        <v>721</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>742</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>743</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>744</v>
       </c>
-      <c r="I70" t="s">
-        <v>745</v>
-      </c>
-      <c r="J70">
+      <c r="J70" s="4">
         <v>2026</v>
       </c>
       <c r="K70" t="s">
@@ -7894,59 +7901,59 @@
         <v>9</v>
       </c>
       <c r="M70" t="s">
+        <v>745</v>
+      </c>
+      <c r="N70" t="s">
+        <v>278</v>
+      </c>
+      <c r="O70" t="s">
         <v>746</v>
       </c>
-      <c r="N70" t="s">
-        <v>279</v>
-      </c>
-      <c r="O70" t="s">
+      <c r="P70" t="s">
         <v>747</v>
       </c>
-      <c r="P70" t="s">
-        <v>748</v>
-      </c>
       <c r="Q70" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R70">
         <v>11</v>
       </c>
       <c r="S70" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="T70" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
-    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
+        <v>748</v>
+      </c>
+      <c r="B71" t="s">
+        <v>257</v>
+      </c>
+      <c r="C71" t="s">
+        <v>305</v>
+      </c>
+      <c r="D71" t="s">
         <v>749</v>
       </c>
-      <c r="B71" t="s">
-        <v>258</v>
-      </c>
-      <c r="C71" t="s">
-        <v>306</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
+        <v>720</v>
+      </c>
+      <c r="F71" t="s">
         <v>750</v>
       </c>
-      <c r="E71" t="s">
-        <v>721</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
+        <v>296</v>
+      </c>
+      <c r="H71" t="s">
         <v>751</v>
       </c>
-      <c r="G71" t="s">
-        <v>297</v>
-      </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>752</v>
       </c>
-      <c r="I71" t="s">
-        <v>753</v>
-      </c>
-      <c r="J71">
+      <c r="J71" s="4">
         <v>2027</v>
       </c>
       <c r="K71" t="s">
@@ -7956,59 +7963,59 @@
         <v>8</v>
       </c>
       <c r="M71" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="N71" t="s">
         <v>30</v>
       </c>
       <c r="O71" t="s">
+        <v>754</v>
+      </c>
+      <c r="P71" t="s">
         <v>755</v>
       </c>
-      <c r="P71" t="s">
-        <v>756</v>
-      </c>
       <c r="Q71" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R71">
         <v>5</v>
       </c>
       <c r="S71" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="T71" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+      <c r="B72" t="s">
+        <v>257</v>
+      </c>
+      <c r="C72" t="s">
+        <v>327</v>
+      </c>
+      <c r="D72" t="s">
         <v>758</v>
       </c>
-      <c r="B72" t="s">
-        <v>258</v>
-      </c>
-      <c r="C72" t="s">
-        <v>328</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
+        <v>720</v>
+      </c>
+      <c r="F72" t="s">
         <v>759</v>
       </c>
-      <c r="E72" t="s">
-        <v>721</v>
-      </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>760</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>761</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>762</v>
       </c>
-      <c r="I72" t="s">
-        <v>763</v>
-      </c>
-      <c r="J72">
+      <c r="J72" s="4">
         <v>2026</v>
       </c>
       <c r="K72" t="s">
@@ -8018,59 +8025,59 @@
         <v>8</v>
       </c>
       <c r="M72" t="s">
+        <v>763</v>
+      </c>
+      <c r="N72" t="s">
+        <v>410</v>
+      </c>
+      <c r="O72" t="s">
         <v>764</v>
       </c>
-      <c r="N72" t="s">
-        <v>411</v>
-      </c>
-      <c r="O72" t="s">
+      <c r="P72" t="s">
         <v>765</v>
       </c>
-      <c r="P72" t="s">
-        <v>766</v>
-      </c>
       <c r="Q72" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R72">
         <v>8</v>
       </c>
       <c r="S72" t="s">
+        <v>766</v>
+      </c>
+      <c r="T72" t="s">
         <v>767</v>
       </c>
-      <c r="T72" t="s">
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+      <c r="B73" t="s">
+        <v>337</v>
+      </c>
+      <c r="C73" t="s">
+        <v>350</v>
+      </c>
+      <c r="D73" t="s">
         <v>769</v>
       </c>
-      <c r="B73" t="s">
-        <v>338</v>
-      </c>
-      <c r="C73" t="s">
-        <v>351</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
+        <v>720</v>
+      </c>
+      <c r="F73" t="s">
         <v>770</v>
       </c>
-      <c r="E73" t="s">
-        <v>721</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>771</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>772</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>773</v>
       </c>
-      <c r="I73" t="s">
-        <v>774</v>
-      </c>
-      <c r="J73">
+      <c r="J73" s="4">
         <v>2027</v>
       </c>
       <c r="K73" t="s">
@@ -8080,59 +8087,59 @@
         <v>8</v>
       </c>
       <c r="M73" t="s">
+        <v>774</v>
+      </c>
+      <c r="N73" t="s">
         <v>775</v>
       </c>
-      <c r="N73" t="s">
+      <c r="O73" t="s">
         <v>776</v>
       </c>
-      <c r="O73" t="s">
+      <c r="P73" t="s">
         <v>777</v>
       </c>
-      <c r="P73" t="s">
-        <v>778</v>
-      </c>
       <c r="Q73" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R73">
         <v>13</v>
       </c>
       <c r="S73" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="T73" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+      <c r="B74" t="s">
+        <v>337</v>
+      </c>
+      <c r="C74" t="s">
+        <v>380</v>
+      </c>
+      <c r="D74" t="s">
         <v>780</v>
       </c>
-      <c r="B74" t="s">
-        <v>338</v>
-      </c>
-      <c r="C74" t="s">
-        <v>381</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
+        <v>720</v>
+      </c>
+      <c r="F74" t="s">
         <v>781</v>
       </c>
-      <c r="E74" t="s">
-        <v>721</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>782</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>783</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>784</v>
       </c>
-      <c r="I74" t="s">
-        <v>785</v>
-      </c>
-      <c r="J74">
+      <c r="J74" s="4">
         <v>2026</v>
       </c>
       <c r="K74" t="s">
@@ -8142,59 +8149,59 @@
         <v>8</v>
       </c>
       <c r="M74" t="s">
+        <v>785</v>
+      </c>
+      <c r="N74" t="s">
+        <v>368</v>
+      </c>
+      <c r="O74" t="s">
         <v>786</v>
       </c>
-      <c r="N74" t="s">
-        <v>369</v>
-      </c>
-      <c r="O74" t="s">
+      <c r="P74" t="s">
         <v>787</v>
       </c>
-      <c r="P74" t="s">
-        <v>788</v>
-      </c>
       <c r="Q74" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R74">
         <v>16</v>
       </c>
       <c r="S74" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="T74" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
-    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>788</v>
+      </c>
+      <c r="B75" t="s">
+        <v>337</v>
+      </c>
+      <c r="C75" t="s">
+        <v>338</v>
+      </c>
+      <c r="D75" t="s">
         <v>789</v>
       </c>
-      <c r="B75" t="s">
-        <v>338</v>
-      </c>
-      <c r="C75" t="s">
-        <v>339</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
+        <v>720</v>
+      </c>
+      <c r="F75" t="s">
         <v>790</v>
       </c>
-      <c r="E75" t="s">
-        <v>721</v>
-      </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>791</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
+        <v>694</v>
+      </c>
+      <c r="I75" t="s">
         <v>792</v>
       </c>
-      <c r="H75" t="s">
-        <v>695</v>
-      </c>
-      <c r="I75" t="s">
-        <v>793</v>
-      </c>
-      <c r="J75">
+      <c r="J75" s="4">
         <v>2027</v>
       </c>
       <c r="K75" t="s">
@@ -8204,59 +8211,59 @@
         <v>9</v>
       </c>
       <c r="M75" t="s">
+        <v>793</v>
+      </c>
+      <c r="N75" t="s">
+        <v>697</v>
+      </c>
+      <c r="O75" t="s">
         <v>794</v>
       </c>
-      <c r="N75" t="s">
-        <v>698</v>
-      </c>
-      <c r="O75" t="s">
+      <c r="P75" t="s">
         <v>795</v>
       </c>
-      <c r="P75" t="s">
-        <v>796</v>
-      </c>
       <c r="Q75" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R75">
         <v>7</v>
       </c>
       <c r="S75" t="s">
+        <v>796</v>
+      </c>
+      <c r="T75" t="s">
         <v>797</v>
       </c>
-      <c r="T75" t="s">
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+      <c r="B76" t="s">
+        <v>337</v>
+      </c>
+      <c r="C76" t="s">
+        <v>338</v>
+      </c>
+      <c r="D76" t="s">
         <v>799</v>
       </c>
-      <c r="B76" t="s">
-        <v>338</v>
-      </c>
-      <c r="C76" t="s">
-        <v>339</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
+        <v>720</v>
+      </c>
+      <c r="F76" t="s">
+        <v>340</v>
+      </c>
+      <c r="G76" t="s">
+        <v>791</v>
+      </c>
+      <c r="H76" t="s">
+        <v>342</v>
+      </c>
+      <c r="I76" t="s">
         <v>800</v>
       </c>
-      <c r="E76" t="s">
-        <v>721</v>
-      </c>
-      <c r="F76" t="s">
-        <v>341</v>
-      </c>
-      <c r="G76" t="s">
-        <v>792</v>
-      </c>
-      <c r="H76" t="s">
-        <v>343</v>
-      </c>
-      <c r="I76" t="s">
-        <v>801</v>
-      </c>
-      <c r="J76">
+      <c r="J76" s="4">
         <v>2026</v>
       </c>
       <c r="K76" t="s">
@@ -8266,60 +8273,60 @@
         <v>8</v>
       </c>
       <c r="M76" t="s">
+        <v>801</v>
+      </c>
+      <c r="N76" t="s">
+        <v>289</v>
+      </c>
+      <c r="O76" t="s">
         <v>802</v>
       </c>
-      <c r="N76" t="s">
-        <v>290</v>
-      </c>
-      <c r="O76" t="s">
+      <c r="P76" t="s">
         <v>803</v>
       </c>
-      <c r="P76" t="s">
-        <v>804</v>
-      </c>
       <c r="Q76" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R76">
         <v>8</v>
       </c>
       <c r="S76" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="T76" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+      <c r="B77" t="s">
+        <v>337</v>
+      </c>
+      <c r="C77" t="s">
+        <v>338</v>
+      </c>
+      <c r="D77" t="s">
         <v>806</v>
       </c>
-      <c r="B77" t="s">
-        <v>338</v>
-      </c>
-      <c r="C77" t="s">
-        <v>339</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
+        <v>720</v>
+      </c>
+      <c r="F77" t="s">
         <v>807</v>
       </c>
-      <c r="E77" t="s">
-        <v>721</v>
-      </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>808</v>
       </c>
-      <c r="G77" t="s">
-        <v>809</v>
-      </c>
       <c r="H77" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I77" t="s">
-        <v>613</v>
-      </c>
-      <c r="J77" t="s">
-        <v>398</v>
+        <v>612</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>397</v>
       </c>
       <c r="K77" t="s">
         <v>62</v>
@@ -8328,59 +8335,59 @@
         <v>9</v>
       </c>
       <c r="M77" t="s">
+        <v>809</v>
+      </c>
+      <c r="N77" t="s">
+        <v>278</v>
+      </c>
+      <c r="O77" t="s">
         <v>810</v>
       </c>
-      <c r="N77" t="s">
-        <v>279</v>
-      </c>
-      <c r="O77" t="s">
+      <c r="P77" t="s">
         <v>811</v>
       </c>
-      <c r="P77" t="s">
-        <v>812</v>
-      </c>
       <c r="Q77" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R77">
         <v>9</v>
       </c>
       <c r="S77" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="T77" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
-    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
+        <v>812</v>
+      </c>
+      <c r="B78" t="s">
+        <v>415</v>
+      </c>
+      <c r="C78" t="s">
+        <v>509</v>
+      </c>
+      <c r="D78" t="s">
         <v>813</v>
       </c>
-      <c r="B78" t="s">
-        <v>416</v>
-      </c>
-      <c r="C78" t="s">
-        <v>510</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
+        <v>720</v>
+      </c>
+      <c r="F78" t="s">
         <v>814</v>
       </c>
-      <c r="E78" t="s">
-        <v>721</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>815</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>816</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>817</v>
       </c>
-      <c r="I78" t="s">
-        <v>818</v>
-      </c>
-      <c r="J78">
+      <c r="J78" s="4">
         <v>2026</v>
       </c>
       <c r="K78" t="s">
@@ -8390,59 +8397,59 @@
         <v>8</v>
       </c>
       <c r="M78" t="s">
+        <v>818</v>
+      </c>
+      <c r="N78" t="s">
+        <v>423</v>
+      </c>
+      <c r="O78" t="s">
         <v>819</v>
       </c>
-      <c r="N78" t="s">
-        <v>424</v>
-      </c>
-      <c r="O78" t="s">
+      <c r="P78" t="s">
         <v>820</v>
       </c>
-      <c r="P78" t="s">
-        <v>821</v>
-      </c>
       <c r="Q78" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R78">
         <v>10</v>
       </c>
       <c r="S78" t="s">
+        <v>821</v>
+      </c>
+      <c r="T78" t="s">
         <v>822</v>
       </c>
-      <c r="T78" t="s">
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+      <c r="B79" t="s">
+        <v>415</v>
+      </c>
+      <c r="C79" t="s">
+        <v>509</v>
+      </c>
+      <c r="D79" t="s">
         <v>824</v>
       </c>
-      <c r="B79" t="s">
-        <v>416</v>
-      </c>
-      <c r="C79" t="s">
-        <v>510</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
+        <v>720</v>
+      </c>
+      <c r="F79" t="s">
         <v>825</v>
       </c>
-      <c r="E79" t="s">
-        <v>721</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>826</v>
       </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>827</v>
       </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>828</v>
       </c>
-      <c r="I79" t="s">
-        <v>829</v>
-      </c>
-      <c r="J79">
+      <c r="J79" s="4">
         <v>2026</v>
       </c>
       <c r="K79" t="s">
@@ -8452,59 +8459,59 @@
         <v>6</v>
       </c>
       <c r="M79" t="s">
+        <v>829</v>
+      </c>
+      <c r="N79" t="s">
+        <v>368</v>
+      </c>
+      <c r="O79" t="s">
         <v>830</v>
       </c>
-      <c r="N79" t="s">
-        <v>369</v>
-      </c>
-      <c r="O79" t="s">
+      <c r="P79" t="s">
         <v>831</v>
       </c>
-      <c r="P79" t="s">
-        <v>832</v>
-      </c>
       <c r="Q79" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R79">
         <v>13</v>
       </c>
       <c r="S79" t="s">
+        <v>832</v>
+      </c>
+      <c r="T79" t="s">
         <v>833</v>
       </c>
-      <c r="T79" t="s">
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+      <c r="B80" t="s">
+        <v>415</v>
+      </c>
+      <c r="C80" t="s">
+        <v>416</v>
+      </c>
+      <c r="D80" t="s">
         <v>835</v>
       </c>
-      <c r="B80" t="s">
-        <v>416</v>
-      </c>
-      <c r="C80" t="s">
-        <v>417</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
+        <v>720</v>
+      </c>
+      <c r="F80" t="s">
         <v>836</v>
       </c>
-      <c r="E80" t="s">
-        <v>721</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>837</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>838</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>839</v>
       </c>
-      <c r="I80" t="s">
-        <v>840</v>
-      </c>
-      <c r="J80">
+      <c r="J80" s="4">
         <v>2026</v>
       </c>
       <c r="K80" t="s">
@@ -8514,59 +8521,59 @@
         <v>9</v>
       </c>
       <c r="M80" t="s">
+        <v>840</v>
+      </c>
+      <c r="N80" t="s">
         <v>841</v>
       </c>
-      <c r="N80" t="s">
+      <c r="O80" t="s">
         <v>842</v>
       </c>
-      <c r="O80" t="s">
+      <c r="P80" t="s">
         <v>843</v>
       </c>
-      <c r="P80" t="s">
-        <v>844</v>
-      </c>
       <c r="Q80" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R80">
         <v>4</v>
       </c>
       <c r="S80" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="T80" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+      <c r="B81" t="s">
+        <v>415</v>
+      </c>
+      <c r="C81" t="s">
+        <v>416</v>
+      </c>
+      <c r="D81" t="s">
         <v>846</v>
       </c>
-      <c r="B81" t="s">
-        <v>416</v>
-      </c>
-      <c r="C81" t="s">
-        <v>417</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
+        <v>720</v>
+      </c>
+      <c r="F81" t="s">
         <v>847</v>
       </c>
-      <c r="E81" t="s">
-        <v>721</v>
-      </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>848</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>849</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>850</v>
       </c>
-      <c r="I81" t="s">
-        <v>851</v>
-      </c>
-      <c r="J81">
+      <c r="J81" s="4">
         <v>2026</v>
       </c>
       <c r="K81" t="s">
@@ -8576,59 +8583,59 @@
         <v>8</v>
       </c>
       <c r="M81" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="N81" t="s">
         <v>103</v>
       </c>
       <c r="O81" t="s">
+        <v>852</v>
+      </c>
+      <c r="P81" t="s">
         <v>853</v>
       </c>
-      <c r="P81" t="s">
-        <v>854</v>
-      </c>
       <c r="Q81" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R81">
         <v>5</v>
       </c>
       <c r="S81" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="T81" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+      <c r="B82" t="s">
+        <v>164</v>
+      </c>
+      <c r="C82" t="s">
+        <v>165</v>
+      </c>
+      <c r="D82" t="s">
         <v>856</v>
       </c>
-      <c r="B82" t="s">
-        <v>165</v>
-      </c>
-      <c r="C82" t="s">
-        <v>166</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>857</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>858</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>859</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>860</v>
       </c>
-      <c r="H82" t="s">
-        <v>861</v>
-      </c>
       <c r="I82" t="s">
-        <v>234</v>
-      </c>
-      <c r="J82">
+        <v>233</v>
+      </c>
+      <c r="J82" s="4">
         <v>2026</v>
       </c>
       <c r="K82" t="s">
@@ -8638,60 +8645,60 @@
         <v>7</v>
       </c>
       <c r="M82" t="s">
+        <v>861</v>
+      </c>
+      <c r="N82" t="s">
+        <v>410</v>
+      </c>
+      <c r="O82" t="s">
         <v>862</v>
       </c>
-      <c r="N82" t="s">
-        <v>411</v>
-      </c>
-      <c r="O82" t="s">
+      <c r="P82" t="s">
         <v>863</v>
       </c>
-      <c r="P82" t="s">
-        <v>864</v>
-      </c>
       <c r="Q82" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R82">
         <v>4</v>
       </c>
       <c r="S82" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="T82" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="83" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+      <c r="B83" t="s">
+        <v>164</v>
+      </c>
+      <c r="C83" t="s">
+        <v>239</v>
+      </c>
+      <c r="D83" t="s">
         <v>866</v>
       </c>
-      <c r="B83" t="s">
-        <v>165</v>
-      </c>
-      <c r="C83" t="s">
-        <v>240</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>867</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>868</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>869</v>
       </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>870</v>
       </c>
-      <c r="H83" t="s">
+      <c r="I83" t="s">
         <v>871</v>
       </c>
-      <c r="I83" t="s">
-        <v>872</v>
-      </c>
-      <c r="J83">
-        <v>2025</v>
+      <c r="J83" s="4">
+        <v>2026</v>
       </c>
       <c r="K83" t="s">
         <v>28</v>
@@ -8700,33 +8707,33 @@
         <v>9</v>
       </c>
       <c r="M83" t="s">
+        <v>872</v>
+      </c>
+      <c r="N83" t="s">
+        <v>410</v>
+      </c>
+      <c r="O83" t="s">
         <v>873</v>
       </c>
-      <c r="N83" t="s">
-        <v>411</v>
-      </c>
-      <c r="O83" t="s">
+      <c r="P83" t="s">
         <v>874</v>
       </c>
-      <c r="P83" t="s">
-        <v>875</v>
-      </c>
       <c r="Q83" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R83">
         <v>9</v>
       </c>
       <c r="S83" t="s">
+        <v>875</v>
+      </c>
+      <c r="T83" t="s">
         <v>876</v>
       </c>
-      <c r="T83" t="s">
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>877</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>878</v>
       </c>
       <c r="B84" t="s">
         <v>20</v>
@@ -8735,24 +8742,24 @@
         <v>136</v>
       </c>
       <c r="D84" t="s">
+        <v>878</v>
+      </c>
+      <c r="E84" t="s">
         <v>879</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>880</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>881</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>882</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>883</v>
       </c>
-      <c r="I84" t="s">
-        <v>884</v>
-      </c>
-      <c r="J84">
+      <c r="J84" s="4">
         <v>2026</v>
       </c>
       <c r="K84" t="s">
@@ -8762,16 +8769,16 @@
         <v>8</v>
       </c>
       <c r="M84" t="s">
+        <v>884</v>
+      </c>
+      <c r="N84" t="s">
+        <v>410</v>
+      </c>
+      <c r="O84" t="s">
         <v>885</v>
       </c>
-      <c r="N84" t="s">
-        <v>411</v>
-      </c>
-      <c r="O84" t="s">
+      <c r="P84" t="s">
         <v>886</v>
-      </c>
-      <c r="P84" t="s">
-        <v>887</v>
       </c>
       <c r="Q84" t="s">
         <v>33</v>
@@ -8780,15 +8787,15 @@
         <v>8</v>
       </c>
       <c r="S84" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="T84" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>888</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>889</v>
       </c>
       <c r="B85" t="s">
         <v>20</v>
@@ -8797,24 +8804,24 @@
         <v>136</v>
       </c>
       <c r="D85" t="s">
+        <v>889</v>
+      </c>
+      <c r="E85" t="s">
         <v>890</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>891</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>892</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>893</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>894</v>
       </c>
-      <c r="I85" t="s">
-        <v>895</v>
-      </c>
-      <c r="J85">
+      <c r="J85" s="4">
         <v>2027</v>
       </c>
       <c r="K85" t="s">
@@ -8824,16 +8831,16 @@
         <v>9</v>
       </c>
       <c r="M85" t="s">
+        <v>895</v>
+      </c>
+      <c r="N85" t="s">
+        <v>410</v>
+      </c>
+      <c r="O85" t="s">
         <v>896</v>
       </c>
-      <c r="N85" t="s">
-        <v>411</v>
-      </c>
-      <c r="O85" t="s">
+      <c r="P85" t="s">
         <v>897</v>
-      </c>
-      <c r="P85" t="s">
-        <v>898</v>
       </c>
       <c r="Q85" t="s">
         <v>33</v>
@@ -8842,42 +8849,42 @@
         <v>7</v>
       </c>
       <c r="S85" t="s">
+        <v>898</v>
+      </c>
+      <c r="T85" t="s">
         <v>899</v>
       </c>
-      <c r="T85" t="s">
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="86" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+      <c r="B86" t="s">
+        <v>164</v>
+      </c>
+      <c r="C86" t="s">
+        <v>165</v>
+      </c>
+      <c r="D86" t="s">
         <v>901</v>
       </c>
-      <c r="B86" t="s">
-        <v>165</v>
-      </c>
-      <c r="C86" t="s">
-        <v>166</v>
-      </c>
-      <c r="D86" t="s">
-        <v>902</v>
-      </c>
       <c r="E86" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F86" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G86" t="s">
         <v>130</v>
       </c>
       <c r="H86" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I86" t="s">
-        <v>546</v>
-      </c>
-      <c r="J86" t="s">
-        <v>150</v>
+        <v>545</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>916</v>
       </c>
       <c r="K86" t="s">
         <v>62</v>
@@ -8886,59 +8893,59 @@
         <v>8</v>
       </c>
       <c r="M86" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N86" t="s">
         <v>30</v>
       </c>
       <c r="O86" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="Q86" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R86">
         <v>6</v>
       </c>
       <c r="S86" t="s">
+        <v>904</v>
+      </c>
+      <c r="T86" t="s">
         <v>905</v>
       </c>
-      <c r="T86" t="s">
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="87" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+      <c r="B87" t="s">
+        <v>415</v>
+      </c>
+      <c r="C87" t="s">
+        <v>509</v>
+      </c>
+      <c r="D87" t="s">
         <v>907</v>
       </c>
-      <c r="B87" t="s">
-        <v>416</v>
-      </c>
-      <c r="C87" t="s">
-        <v>510</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
+        <v>890</v>
+      </c>
+      <c r="F87" t="s">
         <v>908</v>
       </c>
-      <c r="E87" t="s">
-        <v>891</v>
-      </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>909</v>
       </c>
-      <c r="G87" t="s">
-        <v>910</v>
-      </c>
       <c r="H87" t="s">
+        <v>434</v>
+      </c>
+      <c r="I87" t="s">
         <v>435</v>
       </c>
-      <c r="I87" t="s">
-        <v>436</v>
-      </c>
-      <c r="J87">
+      <c r="J87" s="4">
         <v>2026</v>
       </c>
       <c r="K87" t="s">
@@ -8948,52 +8955,37 @@
         <v>8</v>
       </c>
       <c r="M87" t="s">
+        <v>910</v>
+      </c>
+      <c r="N87" t="s">
+        <v>410</v>
+      </c>
+      <c r="O87" t="s">
         <v>911</v>
       </c>
-      <c r="N87" t="s">
-        <v>411</v>
-      </c>
-      <c r="O87" t="s">
+      <c r="P87" t="s">
         <v>912</v>
       </c>
-      <c r="P87" t="s">
-        <v>913</v>
-      </c>
       <c r="Q87" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R87">
         <v>14</v>
       </c>
       <c r="S87" t="s">
+        <v>913</v>
+      </c>
+      <c r="T87" t="s">
         <v>914</v>
-      </c>
-      <c r="T87" t="s">
-        <v>915</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="O1:O87" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val=" "/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="J1:J87" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <status xmlns="97b66f12-2b99-4af9-8dd0-4615ba9e34cf" xsi:nil="true"/>
@@ -9003,6 +8995,15 @@
     <TaxCatchAll xmlns="682daa6a-fc4e-47a4-bc9a-068fc2d76523" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9211,20 +9212,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98B4A97D-0390-429E-AA03-4F97F7FF7DBA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B988E1EC-18C0-443E-A70E-0CDAFCFD5C18}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="97b66f12-2b99-4af9-8dd0-4615ba9e34cf"/>
     <ds:schemaRef ds:uri="682daa6a-fc4e-47a4-bc9a-068fc2d76523"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98B4A97D-0390-429E-AA03-4F97F7FF7DBA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
